--- a/_doc/A2_会员数据.xlsx
+++ b/_doc/A2_会员数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7236" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7236" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CRM_Bas_CardCustomerInfo" sheetId="1" r:id="rId1"/>
@@ -5965,9 +5965,6 @@
     <t>UR0000295582</t>
   </si>
   <si>
-    <t>o4r_GjnWLaKwQx7OfuHobTGCwROY</t>
-  </si>
-  <si>
     <t>urbanrevivo@sina.cn</t>
   </si>
   <si>
@@ -6023,9 +6020,6 @@
   </si>
   <si>
     <t>o4r_GjrrFA2WOFWCGlTHt_BsjMhg</t>
-  </si>
-  <si>
-    <t>o4r_Gjv6FiO5K-iPXABcFPa6XJ3M</t>
   </si>
   <si>
     <t>o4r_GjjyIBPoSO-5VsKrX2ZOvxyQ</t>
@@ -7371,6 +7365,14 @@
   </si>
   <si>
     <t>对应字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o4r_GjnWLaKwQx7OfuHobTGCwROY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o4r_Gjv6FiO5K-iPXABcFPa6XJ3M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7730,8 +7732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7751,65 +7753,65 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2427</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>2428</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>2429</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>2430</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>2431</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2432</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2433</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>2411</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2425</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2410</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2412</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2413</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -14468,7 +14470,7 @@
         <v>1</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>363</v>
@@ -15462,8 +15464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15495,41 +15497,41 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="B3" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="C3" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="4" spans="1:46" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="5" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -43599,8 +43601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -43616,59 +43618,59 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="D1" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B3" t="s">
         <v>2415</v>
       </c>
-      <c r="B3" t="s">
-        <v>2417</v>
-      </c>
       <c r="C3" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="E3" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="H3" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>2411</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2425</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2424</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2419</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>2413</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -43703,7 +43705,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -43715,14 +43717,14 @@
         <v>415</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>1979</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1980</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>1144</v>
@@ -43730,26 +43732,26 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>1981</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1982</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>1275</v>
@@ -43757,7 +43759,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -43769,10 +43771,10 @@
         <v>415</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
@@ -43784,7 +43786,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -43796,10 +43798,10 @@
         <v>415</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
@@ -43811,7 +43813,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -43823,14 +43825,14 @@
         <v>415</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>1144</v>
@@ -43838,7 +43840,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -43850,10 +43852,10 @@
         <v>415</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -43865,7 +43867,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -43877,10 +43879,10 @@
         <v>415</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -43892,7 +43894,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -43904,14 +43906,14 @@
         <v>415</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>1144</v>
@@ -43919,7 +43921,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -43931,10 +43933,10 @@
         <v>415</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
@@ -43946,7 +43948,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -43958,10 +43960,10 @@
         <v>415</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
@@ -43973,7 +43975,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -43985,10 +43987,10 @@
         <v>415</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
@@ -44000,7 +44002,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -44012,10 +44014,10 @@
         <v>415</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
@@ -44027,7 +44029,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -44039,10 +44041,10 @@
         <v>415</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
@@ -44054,7 +44056,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -44066,14 +44068,14 @@
         <v>418</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>1144</v>
@@ -44081,7 +44083,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -44093,10 +44095,10 @@
         <v>415</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
@@ -44108,7 +44110,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -44120,10 +44122,10 @@
         <v>415</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
@@ -44135,7 +44137,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -44147,10 +44149,10 @@
         <v>415</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
@@ -44162,7 +44164,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -44174,10 +44176,10 @@
         <v>415</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
@@ -44189,7 +44191,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -44201,10 +44203,10 @@
         <v>415</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1999</v>
+        <v>2437</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
@@ -44216,7 +44218,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -44228,10 +44230,10 @@
         <v>415</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
@@ -44243,7 +44245,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -44255,10 +44257,10 @@
         <v>415</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
@@ -44270,7 +44272,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -44282,14 +44284,14 @@
         <v>418</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>1144</v>
@@ -44297,7 +44299,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -44309,10 +44311,10 @@
         <v>415</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
@@ -44324,7 +44326,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -44336,10 +44338,10 @@
         <v>415</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -44351,7 +44353,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -44363,10 +44365,10 @@
         <v>415</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
@@ -44378,7 +44380,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -44390,10 +44392,10 @@
         <v>415</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -44405,7 +44407,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -44417,10 +44419,10 @@
         <v>415</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -44432,7 +44434,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -44444,14 +44446,14 @@
         <v>418</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>1144</v>
@@ -44459,7 +44461,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -44471,10 +44473,10 @@
         <v>415</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
@@ -44486,7 +44488,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -44498,10 +44500,10 @@
         <v>415</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
@@ -44513,7 +44515,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -44525,10 +44527,10 @@
         <v>415</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
@@ -44540,7 +44542,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
@@ -44552,10 +44554,10 @@
         <v>415</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
@@ -44567,7 +44569,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
@@ -44579,10 +44581,10 @@
         <v>415</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
@@ -44594,7 +44596,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
@@ -44606,10 +44608,10 @@
         <v>415</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
@@ -44621,7 +44623,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1</v>
@@ -44633,14 +44635,14 @@
         <v>418</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>1144</v>
@@ -44648,7 +44650,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -44660,10 +44662,10 @@
         <v>415</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
@@ -44675,7 +44677,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -44687,10 +44689,10 @@
         <v>415</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
@@ -44702,7 +44704,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -44714,10 +44716,10 @@
         <v>415</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
@@ -44729,7 +44731,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
@@ -44741,10 +44743,10 @@
         <v>415</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
@@ -44756,7 +44758,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -44768,14 +44770,14 @@
         <v>450</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>1144</v>
@@ -44783,7 +44785,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
@@ -44795,10 +44797,10 @@
         <v>415</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
@@ -44810,7 +44812,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -44822,10 +44824,10 @@
         <v>415</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
@@ -44837,7 +44839,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -44849,10 +44851,10 @@
         <v>415</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
@@ -44864,7 +44866,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -44876,14 +44878,14 @@
         <v>418</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>1144</v>
@@ -44891,7 +44893,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -44903,10 +44905,10 @@
         <v>415</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
@@ -44918,7 +44920,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
@@ -44930,14 +44932,14 @@
         <v>510</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>1144</v>
@@ -44945,7 +44947,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
@@ -44957,10 +44959,10 @@
         <v>415</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
@@ -44972,7 +44974,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
@@ -44984,10 +44986,10 @@
         <v>415</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
@@ -44999,7 +45001,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>1</v>
@@ -45011,10 +45013,10 @@
         <v>415</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
@@ -45026,7 +45028,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
@@ -45038,10 +45040,10 @@
         <v>415</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
@@ -45053,7 +45055,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1</v>
@@ -45065,10 +45067,10 @@
         <v>415</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
@@ -45080,7 +45082,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1</v>
@@ -45092,10 +45094,10 @@
         <v>415</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
@@ -45107,7 +45109,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
@@ -45119,10 +45121,10 @@
         <v>415</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
@@ -45134,7 +45136,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>1</v>
@@ -45146,10 +45148,10 @@
         <v>415</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
@@ -45161,7 +45163,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -45173,10 +45175,10 @@
         <v>415</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
@@ -45188,7 +45190,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -45200,14 +45202,14 @@
         <v>418</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>1144</v>
@@ -45215,7 +45217,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -45227,10 +45229,10 @@
         <v>415</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
@@ -45242,7 +45244,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1</v>
@@ -45254,10 +45256,10 @@
         <v>415</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
@@ -45269,7 +45271,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
@@ -45281,14 +45283,14 @@
         <v>418</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>1144</v>
@@ -45296,7 +45298,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -45308,10 +45310,10 @@
         <v>415</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
@@ -45323,7 +45325,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -45335,10 +45337,10 @@
         <v>415</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
@@ -45350,7 +45352,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1</v>
@@ -45362,10 +45364,10 @@
         <v>415</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
@@ -45377,7 +45379,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
@@ -45389,10 +45391,10 @@
         <v>415</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
@@ -45404,7 +45406,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
@@ -45416,10 +45418,10 @@
         <v>415</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
@@ -45431,7 +45433,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1</v>
@@ -45443,10 +45445,10 @@
         <v>415</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
@@ -45458,7 +45460,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
@@ -45470,14 +45472,14 @@
         <v>418</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>1144</v>
@@ -45485,7 +45487,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -45497,10 +45499,10 @@
         <v>415</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
@@ -45512,7 +45514,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -45524,10 +45526,10 @@
         <v>415</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
@@ -45539,7 +45541,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1</v>
@@ -45551,10 +45553,10 @@
         <v>415</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
@@ -45566,7 +45568,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1</v>
@@ -45578,10 +45580,10 @@
         <v>415</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
@@ -45593,7 +45595,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -45605,10 +45607,10 @@
         <v>415</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
@@ -45620,7 +45622,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1</v>
@@ -45632,10 +45634,10 @@
         <v>415</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
@@ -45647,7 +45649,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1</v>
@@ -45659,10 +45661,10 @@
         <v>415</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
@@ -45674,7 +45676,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1</v>
@@ -45686,10 +45688,10 @@
         <v>415</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
@@ -45701,7 +45703,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>1</v>
@@ -45713,10 +45715,10 @@
         <v>415</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
@@ -45728,7 +45730,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>1</v>
@@ -45740,10 +45742,10 @@
         <v>415</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
@@ -45755,7 +45757,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -45767,10 +45769,10 @@
         <v>415</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
@@ -45782,7 +45784,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1</v>
@@ -45794,10 +45796,10 @@
         <v>415</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
@@ -45809,7 +45811,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1</v>
@@ -45821,10 +45823,10 @@
         <v>415</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
@@ -45836,7 +45838,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1</v>
@@ -45848,14 +45850,14 @@
         <v>418</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>1144</v>
@@ -45863,7 +45865,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>1</v>
@@ -45875,10 +45877,10 @@
         <v>415</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
@@ -45890,7 +45892,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>1</v>
@@ -45902,10 +45904,10 @@
         <v>415</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
@@ -45917,7 +45919,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1</v>
@@ -45929,10 +45931,10 @@
         <v>415</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
@@ -45944,7 +45946,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1</v>
@@ -45956,10 +45958,10 @@
         <v>415</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
@@ -45971,7 +45973,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -45983,14 +45985,14 @@
         <v>415</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>1317</v>
@@ -45998,7 +46000,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1</v>
@@ -46010,10 +46012,10 @@
         <v>415</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
@@ -46025,7 +46027,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>1</v>
@@ -46037,10 +46039,10 @@
         <v>415</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
@@ -46052,7 +46054,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1</v>
@@ -46064,10 +46066,10 @@
         <v>415</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
@@ -46079,7 +46081,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1</v>
@@ -46091,10 +46093,10 @@
         <v>415</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
@@ -46106,7 +46108,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>1</v>
@@ -46118,10 +46120,10 @@
         <v>415</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
@@ -46133,7 +46135,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>1</v>
@@ -46145,10 +46147,10 @@
         <v>415</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
@@ -46160,7 +46162,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>1</v>
@@ -46172,10 +46174,10 @@
         <v>415</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
@@ -46187,7 +46189,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1</v>
@@ -46199,10 +46201,10 @@
         <v>415</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
@@ -46214,7 +46216,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1</v>
@@ -46226,10 +46228,10 @@
         <v>415</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
@@ -46241,7 +46243,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -46253,10 +46255,10 @@
         <v>415</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
@@ -46268,7 +46270,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1</v>
@@ -46280,10 +46282,10 @@
         <v>415</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
@@ -46295,7 +46297,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>1</v>
@@ -46307,10 +46309,10 @@
         <v>415</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
@@ -46322,7 +46324,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>1</v>
@@ -46334,10 +46336,10 @@
         <v>415</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
@@ -46349,7 +46351,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>1</v>
@@ -46361,10 +46363,10 @@
         <v>415</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
@@ -46376,7 +46378,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1</v>
@@ -46388,10 +46390,10 @@
         <v>415</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
@@ -46403,7 +46405,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -46415,14 +46417,14 @@
         <v>418</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>1144</v>
@@ -46430,7 +46432,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1</v>
@@ -46442,10 +46444,10 @@
         <v>415</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1" t="s">
@@ -46457,7 +46459,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1</v>
@@ -46469,10 +46471,10 @@
         <v>415</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
@@ -46484,7 +46486,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1</v>
@@ -46496,10 +46498,10 @@
         <v>415</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
@@ -46511,7 +46513,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1</v>
@@ -46523,10 +46525,10 @@
         <v>415</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
@@ -46538,7 +46540,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1</v>
@@ -46550,10 +46552,10 @@
         <v>415</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
@@ -46565,7 +46567,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1</v>
@@ -46577,10 +46579,10 @@
         <v>415</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
@@ -46592,7 +46594,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1</v>
@@ -46604,10 +46606,10 @@
         <v>415</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
@@ -46619,7 +46621,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
@@ -46631,10 +46633,10 @@
         <v>415</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
@@ -46646,7 +46648,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1</v>
@@ -46658,10 +46660,10 @@
         <v>415</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
@@ -46673,7 +46675,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1</v>
@@ -46692,7 +46694,7 @@
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>1144</v>
@@ -46700,7 +46702,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1</v>
@@ -46712,10 +46714,10 @@
         <v>415</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
@@ -46727,7 +46729,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1</v>
@@ -46739,10 +46741,10 @@
         <v>415</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
@@ -46754,7 +46756,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1</v>
@@ -46766,10 +46768,10 @@
         <v>415</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1" t="s">
@@ -46781,7 +46783,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1</v>
@@ -46793,10 +46795,10 @@
         <v>415</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1" t="s">
@@ -46808,7 +46810,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1</v>
@@ -46820,10 +46822,10 @@
         <v>415</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
@@ -46835,7 +46837,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1</v>
@@ -46847,10 +46849,10 @@
         <v>415</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
@@ -46862,7 +46864,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1</v>
@@ -46874,10 +46876,10 @@
         <v>415</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
@@ -46889,7 +46891,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1</v>
@@ -46901,14 +46903,14 @@
         <v>415</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>1144</v>
@@ -46916,7 +46918,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1</v>
@@ -46928,10 +46930,10 @@
         <v>415</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
@@ -46943,7 +46945,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1</v>
@@ -46955,10 +46957,10 @@
         <v>415</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
@@ -46970,7 +46972,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1</v>
@@ -46982,10 +46984,10 @@
         <v>415</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1" t="s">
@@ -46997,7 +46999,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>1</v>
@@ -47009,10 +47011,10 @@
         <v>415</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
@@ -47024,7 +47026,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>1</v>
@@ -47036,10 +47038,10 @@
         <v>415</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
@@ -47051,7 +47053,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>1</v>
@@ -47063,10 +47065,10 @@
         <v>415</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
@@ -47078,7 +47080,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>1</v>
@@ -47090,10 +47092,10 @@
         <v>415</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
@@ -47105,7 +47107,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1</v>
@@ -47117,10 +47119,10 @@
         <v>415</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1" t="s">
@@ -47132,7 +47134,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>1</v>
@@ -47144,14 +47146,14 @@
         <v>415</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>1144</v>
@@ -47159,7 +47161,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>1</v>
@@ -47171,10 +47173,10 @@
         <v>415</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
@@ -47186,7 +47188,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>1</v>
@@ -47198,10 +47200,10 @@
         <v>415</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
@@ -47213,7 +47215,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>1</v>
@@ -47225,10 +47227,10 @@
         <v>415</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
@@ -47240,7 +47242,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>1</v>
@@ -47252,14 +47254,14 @@
         <v>418</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>1144</v>
@@ -47267,7 +47269,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>1</v>
@@ -47279,10 +47281,10 @@
         <v>415</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
@@ -47294,7 +47296,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>1</v>
@@ -47306,10 +47308,10 @@
         <v>415</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
@@ -47321,7 +47323,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>1</v>
@@ -47333,10 +47335,10 @@
         <v>415</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
@@ -47348,7 +47350,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>1</v>
@@ -47360,10 +47362,10 @@
         <v>415</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
@@ -47375,7 +47377,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>1</v>
@@ -47387,10 +47389,10 @@
         <v>415</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
@@ -47402,7 +47404,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>1</v>
@@ -47414,10 +47416,10 @@
         <v>415</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
@@ -47429,7 +47431,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>1</v>
@@ -47441,10 +47443,10 @@
         <v>415</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
@@ -47456,7 +47458,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>1</v>
@@ -47468,10 +47470,10 @@
         <v>415</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
@@ -47483,7 +47485,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>1</v>
@@ -47495,10 +47497,10 @@
         <v>415</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
@@ -47510,7 +47512,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>1</v>
@@ -47522,10 +47524,10 @@
         <v>415</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
@@ -47537,7 +47539,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>1</v>
@@ -47549,10 +47551,10 @@
         <v>415</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
@@ -47564,7 +47566,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>1</v>
@@ -47576,10 +47578,10 @@
         <v>415</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
@@ -47591,7 +47593,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>1</v>
@@ -47603,10 +47605,10 @@
         <v>415</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1" t="s">
@@ -47618,7 +47620,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>1</v>
@@ -47630,10 +47632,10 @@
         <v>415</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
@@ -47645,7 +47647,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>1</v>
@@ -47657,10 +47659,10 @@
         <v>415</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
@@ -47672,7 +47674,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>1</v>
@@ -47684,10 +47686,10 @@
         <v>415</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
@@ -47699,7 +47701,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>1</v>
@@ -47711,10 +47713,10 @@
         <v>415</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
@@ -47726,7 +47728,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>1</v>
@@ -47738,10 +47740,10 @@
         <v>415</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
@@ -47753,7 +47755,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>1</v>
@@ -47765,10 +47767,10 @@
         <v>415</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
@@ -47780,7 +47782,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>1</v>
@@ -47792,10 +47794,10 @@
         <v>415</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
@@ -47807,7 +47809,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>1</v>
@@ -47819,10 +47821,10 @@
         <v>415</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
@@ -47834,7 +47836,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>1</v>
@@ -47846,10 +47848,10 @@
         <v>415</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
@@ -47861,7 +47863,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>1</v>
@@ -47873,10 +47875,10 @@
         <v>415</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
@@ -47888,7 +47890,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>1</v>
@@ -47900,14 +47902,14 @@
         <v>418</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>1144</v>
@@ -47915,7 +47917,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1</v>
@@ -47927,10 +47929,10 @@
         <v>415</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
@@ -47942,7 +47944,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>1</v>
@@ -47954,10 +47956,10 @@
         <v>415</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
@@ -47969,7 +47971,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>1</v>
@@ -47981,10 +47983,10 @@
         <v>415</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
@@ -47996,7 +47998,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1</v>
@@ -48008,14 +48010,14 @@
         <v>418</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>1144</v>
@@ -48023,7 +48025,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>1</v>
@@ -48035,10 +48037,10 @@
         <v>415</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
@@ -48050,7 +48052,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>1</v>
@@ -48062,10 +48064,10 @@
         <v>415</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
@@ -48077,7 +48079,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>1</v>
@@ -48089,10 +48091,10 @@
         <v>415</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
@@ -48104,7 +48106,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1</v>
@@ -48116,10 +48118,10 @@
         <v>415</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
@@ -48131,7 +48133,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1</v>
@@ -48143,10 +48145,10 @@
         <v>415</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
@@ -48158,7 +48160,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>1</v>
@@ -48170,10 +48172,10 @@
         <v>415</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
@@ -48185,7 +48187,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>1</v>
@@ -48204,7 +48206,7 @@
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>1144</v>
@@ -48212,7 +48214,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>1</v>
@@ -48224,10 +48226,10 @@
         <v>415</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
@@ -48239,7 +48241,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1</v>
@@ -48251,10 +48253,10 @@
         <v>415</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1" t="s">
@@ -48266,7 +48268,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1</v>
@@ -48278,14 +48280,14 @@
         <v>415</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>1144</v>
@@ -48293,7 +48295,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>1</v>
@@ -48305,10 +48307,10 @@
         <v>415</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
@@ -48320,7 +48322,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
@@ -48332,10 +48334,10 @@
         <v>415</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
@@ -48347,7 +48349,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>1</v>
@@ -48359,10 +48361,10 @@
         <v>415</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
@@ -48374,7 +48376,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>1</v>
@@ -48386,10 +48388,10 @@
         <v>415</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
@@ -48401,7 +48403,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>1</v>
@@ -48413,10 +48415,10 @@
         <v>415</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
@@ -48428,7 +48430,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>1</v>
@@ -48440,10 +48442,10 @@
         <v>415</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
@@ -48455,7 +48457,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>1</v>
@@ -48467,10 +48469,10 @@
         <v>415</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
@@ -48482,7 +48484,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1</v>
@@ -48494,10 +48496,10 @@
         <v>415</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
@@ -48509,7 +48511,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>1</v>
@@ -48521,14 +48523,14 @@
         <v>415</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>1144</v>
@@ -48536,7 +48538,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1</v>
@@ -48548,10 +48550,10 @@
         <v>415</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
@@ -48563,7 +48565,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>1</v>
@@ -48575,10 +48577,10 @@
         <v>415</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
@@ -48590,7 +48592,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>1</v>
@@ -48602,10 +48604,10 @@
         <v>415</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
@@ -48617,7 +48619,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>1</v>
@@ -48629,14 +48631,14 @@
         <v>472</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>1144</v>
@@ -48644,7 +48646,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>1</v>
@@ -48656,10 +48658,10 @@
         <v>415</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
@@ -48671,7 +48673,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>1</v>
@@ -48683,10 +48685,10 @@
         <v>415</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
@@ -48698,7 +48700,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>1</v>
@@ -48710,10 +48712,10 @@
         <v>415</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
@@ -48725,7 +48727,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>1</v>
@@ -48737,10 +48739,10 @@
         <v>415</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
@@ -48752,7 +48754,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>1</v>
@@ -48764,10 +48766,10 @@
         <v>415</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
@@ -48779,7 +48781,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>1</v>
@@ -48791,10 +48793,10 @@
         <v>415</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
@@ -48806,7 +48808,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>1</v>
@@ -48818,10 +48820,10 @@
         <v>415</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
@@ -48833,7 +48835,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>1</v>
@@ -48845,10 +48847,10 @@
         <v>415</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1" t="s">
@@ -48860,7 +48862,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>1</v>
@@ -48872,10 +48874,10 @@
         <v>415</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
@@ -48887,7 +48889,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>1</v>
@@ -48899,10 +48901,10 @@
         <v>415</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
@@ -48914,7 +48916,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>1</v>
@@ -48926,10 +48928,10 @@
         <v>415</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1" t="s">
@@ -48941,7 +48943,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>1</v>
@@ -48953,10 +48955,10 @@
         <v>415</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1" t="s">
@@ -48968,7 +48970,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>1</v>
@@ -48980,10 +48982,10 @@
         <v>415</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
@@ -48995,7 +48997,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>1</v>
@@ -49007,10 +49009,10 @@
         <v>415</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1" t="s">
@@ -49022,7 +49024,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>1</v>
@@ -49034,10 +49036,10 @@
         <v>415</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1" t="s">
@@ -49049,7 +49051,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>1</v>
@@ -49061,10 +49063,10 @@
         <v>415</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1" t="s">
@@ -49076,7 +49078,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>1</v>
@@ -49088,10 +49090,10 @@
         <v>415</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G206" s="1"/>
       <c r="H206" s="1" t="s">
